--- a/Outputs/Exp_all_Run_all_exclusions_firstHour/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
+++ b/Outputs/Exp_all_Run_all_exclusions_firstHour/Behavior Tables/run_all_exp_ER_GroupStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="317" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="634" uniqueCount="22">
   <si>
     <t>Sex</t>
   </si>
@@ -144,7 +144,7 @@
     <col min="12" max="12" width="17.85546875" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
     <col min="14" max="14" width="13.85546875" customWidth="true"/>
-    <col min="15" max="15" width="12.5703125" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
   </cols>
@@ -242,8 +242,12 @@
       <c r="M2" s="0">
         <v>17.375149879449481</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
+      <c r="N2" s="0">
+        <v>73.219375000000056</v>
+      </c>
+      <c r="O2" s="0">
+        <v>46.541648333049949</v>
+      </c>
       <c r="P2" s="0">
         <v>0</v>
       </c>
@@ -292,10 +296,10 @@
         <v>11.034038245356955</v>
       </c>
       <c r="N3" s="0">
-        <v>18.075838235294135</v>
+        <v>16.048139705882367</v>
       </c>
       <c r="O3" s="0">
-        <v>8.1977275578023487</v>
+        <v>8.3251062529230691</v>
       </c>
       <c r="P3" s="0">
         <v>19.261725000000002</v>
@@ -345,10 +349,10 @@
         <v>17.051392904979934</v>
       </c>
       <c r="N4" s="0">
-        <v>65.768042016806717</v>
+        <v>18.939337406015031</v>
       </c>
       <c r="O4" s="0">
-        <v>59.098776145542367</v>
+        <v>13.042611330076976</v>
       </c>
       <c r="P4" s="0">
         <v>19.261724999999998</v>
@@ -398,10 +402,10 @@
         <v>19.859926149577362</v>
       </c>
       <c r="N5" s="0">
-        <v>13.575352941176469</v>
+        <v>12.643529411764703</v>
       </c>
       <c r="O5" s="0">
-        <v>1.0006470588235077</v>
+        <v>0.75647058823527491</v>
       </c>
       <c r="P5" s="0">
         <v>24.668525000000002</v>
@@ -451,10 +455,10 @@
         <v>17.523793348853818</v>
       </c>
       <c r="N6" s="0">
-        <v>121.91377627627628</v>
+        <v>38.230456349206364</v>
       </c>
       <c r="O6" s="0">
-        <v>113.39710015936868</v>
+        <v>30.686240531055873</v>
       </c>
       <c r="P6" s="0">
         <v>49.674975000000003</v>
@@ -504,10 +508,10 @@
         <v>57.999999999999993</v>
       </c>
       <c r="N7" s="0">
-        <v>167.02986559139782</v>
+        <v>3.8234900990098883</v>
       </c>
       <c r="O7" s="0">
-        <v>165.87680107526879</v>
+        <v>2.8515099009900666</v>
       </c>
       <c r="P7" s="0">
         <v>60.826500000000003</v>
@@ -557,10 +561,10 @@
         <v>9.6781540939719832</v>
       </c>
       <c r="N8" s="0">
-        <v>444.89149758454107</v>
+        <v>19.915530012771388</v>
       </c>
       <c r="O8" s="0">
-        <v>322.1637330759138</v>
+        <v>7.8128472434670941</v>
       </c>
       <c r="P8" s="0">
         <v>22.978899999999999</v>
@@ -610,10 +614,10 @@
         <v>2.4958298553119898</v>
       </c>
       <c r="N9" s="0">
-        <v>73.633964285714271</v>
+        <v>55.960821428571421</v>
       </c>
       <c r="O9" s="0">
-        <v>30.357704634668934</v>
+        <v>20.655459557508955</v>
       </c>
       <c r="P9" s="0">
         <v>32.778725000000001</v>
@@ -663,10 +667,10 @@
         <v>6.8129778119898985</v>
       </c>
       <c r="N10" s="0">
-        <v>32.185913461538476</v>
+        <v>31.560897435897445</v>
       </c>
       <c r="O10" s="0">
-        <v>16.061647834468491</v>
+        <v>16.163335764241662</v>
       </c>
       <c r="P10" s="0">
         <v>26.358150000000002</v>
@@ -716,10 +720,10 @@
         <v>5.3599595769620008</v>
       </c>
       <c r="N11" s="0">
-        <v>132.24445075757575</v>
+        <v>53.0379356060606</v>
       </c>
       <c r="O11" s="0">
-        <v>59.423488634555632</v>
+        <v>14.840630150085312</v>
       </c>
       <c r="P11" s="0">
         <v>16.558325</v>
@@ -769,10 +773,10 @@
         <v>4.2695628191498329</v>
       </c>
       <c r="N12" s="0">
-        <v>20.719166666666688</v>
+        <v>19.952500000000025</v>
       </c>
       <c r="O12" s="0">
-        <v>8.3389334100151444</v>
+        <v>8.6141399288009612</v>
       </c>
       <c r="P12" s="0">
         <v>16.558325</v>
@@ -822,10 +826,10 @@
         <v>2.9261749776799064</v>
       </c>
       <c r="N13" s="0">
-        <v>121.65892857142856</v>
+        <v>49.340166666666683</v>
       </c>
       <c r="O13" s="0">
-        <v>31.031880211061544</v>
+        <v>18.925152172439748</v>
       </c>
       <c r="P13" s="0">
         <v>20.951350000000001</v>
@@ -875,10 +879,10 @@
         <v>3.7638632635454048</v>
       </c>
       <c r="N14" s="0">
-        <v>105.65841666666667</v>
+        <v>21.038958333333348</v>
       </c>
       <c r="O14" s="0">
-        <v>83.148748792993146</v>
+        <v>8.0654936114400702</v>
       </c>
       <c r="P14" s="0">
         <v>17.234175</v>
@@ -928,10 +932,10 @@
         <v>5.3131127097650266</v>
       </c>
       <c r="N15" s="0">
-        <v>28.694791666666692</v>
+        <v>27.375144230769259</v>
       </c>
       <c r="O15" s="0">
-        <v>18.135439593689629</v>
+        <v>17.239719470073815</v>
       </c>
       <c r="P15" s="0">
         <v>26.020225000000003</v>
@@ -981,10 +985,10 @@
         <v>7.5938571665963446</v>
       </c>
       <c r="N16" s="0">
-        <v>134.75462499999998</v>
+        <v>17.265499999999985</v>
       </c>
       <c r="O16" s="0">
-        <v>115.46016053428814</v>
+        <v>8.6375541146399364</v>
       </c>
       <c r="P16" s="0">
         <v>18.585875000000001</v>
@@ -1034,10 +1038,10 @@
         <v>3.4970225430595478</v>
       </c>
       <c r="N17" s="0">
-        <v>100.9227083333333</v>
+        <v>9.9643717948717843</v>
       </c>
       <c r="O17" s="0">
-        <v>57.463983993534121</v>
+        <v>4.9974881606672534</v>
       </c>
       <c r="P17" s="0">
         <v>19.937575000000002</v>
@@ -1087,10 +1091,10 @@
         <v>7.4316328398721812</v>
       </c>
       <c r="N18" s="0">
-        <v>51.479910714285722</v>
+        <v>39.378392857142863</v>
       </c>
       <c r="O18" s="0">
-        <v>8.4998868519567505</v>
+        <v>3.8736773074467505</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
@@ -1140,10 +1144,10 @@
         <v>3.1191612120354835</v>
       </c>
       <c r="N19" s="0">
-        <v>100.12508333333335</v>
+        <v>72.096750000000014</v>
       </c>
       <c r="O19" s="0">
-        <v>35.578965949876903</v>
+        <v>34.866575501892441</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
@@ -1193,10 +1197,10 @@
         <v>2.9720924166878349</v>
       </c>
       <c r="N20" s="0">
-        <v>151.5529166666667</v>
+        <v>93.428809523809576</v>
       </c>
       <c r="O20" s="0">
-        <v>33.797849267433634</v>
+        <v>31.318679178798948</v>
       </c>
       <c r="P20" s="0">
         <v>0</v>
@@ -1246,10 +1250,10 @@
         <v>3.9024564913226985</v>
       </c>
       <c r="N21" s="0">
-        <v>243.94972222222222</v>
+        <v>111.90236111111109</v>
       </c>
       <c r="O21" s="0">
-        <v>118.33501940406785</v>
+        <v>34.291224845551667</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
@@ -1299,10 +1303,10 @@
         <v>1.3149778198382918</v>
       </c>
       <c r="N22" s="0">
-        <v>110.96791666666661</v>
+        <v>37.669999999999966</v>
       </c>
       <c r="O22" s="0">
-        <v>48.915141048398489</v>
+        <v>10.429627470176815</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -1352,10 +1356,10 @@
         <v>2.1213203435596424</v>
       </c>
       <c r="N23" s="0">
-        <v>157.69745833333332</v>
+        <v>59.285624999999968</v>
       </c>
       <c r="O23" s="0">
-        <v>54.949816232268411</v>
+        <v>18.728763310991564</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -1405,10 +1409,10 @@
         <v>4.6904157598234297</v>
       </c>
       <c r="N24" s="0">
-        <v>131.85388888888892</v>
+        <v>68.578888888888912</v>
       </c>
       <c r="O24" s="0">
-        <v>59.658487741208319</v>
+        <v>47.155550882291116</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -1458,10 +1462,10 @@
         <v>3.1983068437325812</v>
       </c>
       <c r="N25" s="0">
-        <v>283.08194444444445</v>
+        <v>83.556249999999991</v>
       </c>
       <c r="O25" s="0">
-        <v>125.52517267864279</v>
+        <v>34.22375000000001</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -1511,10 +1515,10 @@
         <v>6.6833125519211407</v>
       </c>
       <c r="N26" s="0">
-        <v>231.06038461538463</v>
+        <v>25.129038194444437</v>
       </c>
       <c r="O26" s="0">
-        <v>172.66941114087831</v>
+        <v>11.507296933141047</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -1563,8 +1567,12 @@
       <c r="M27" s="0">
         <v>12.251983966326073</v>
       </c>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
+      <c r="N27" s="0">
+        <v>107.73845238095237</v>
+      </c>
+      <c r="O27" s="0">
+        <v>13.832725929722805</v>
+      </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
@@ -1613,10 +1621,10 @@
         <v>12.42309676905615</v>
       </c>
       <c r="N28" s="0">
-        <v>94.054285714285712</v>
+        <v>75.501666666666665</v>
       </c>
       <c r="O28" s="0">
-        <v>71.434285714285707</v>
+        <v>52.881666666666661</v>
       </c>
       <c r="P28" s="0">
         <v>14.868700000000002</v>
@@ -1666,10 +1674,10 @@
         <v>7.3105707331537699</v>
       </c>
       <c r="N29" s="0">
-        <v>53.259000000000057</v>
+        <v>52.964000000000055</v>
       </c>
       <c r="O29" s="0">
-        <v>32.168999999999983</v>
+        <v>32.463999999999984</v>
       </c>
       <c r="P29" s="0">
         <v>13.066433333333334</v>
@@ -1719,10 +1727,10 @@
         <v>15.099668870541501</v>
       </c>
       <c r="N30" s="0">
-        <v>136.3762777777778</v>
+        <v>59.635555555555563</v>
       </c>
       <c r="O30" s="0">
-        <v>76.716075782619157</v>
+        <v>16.27401203359987</v>
       </c>
       <c r="P30" s="0">
         <v>31.539666666666665</v>
@@ -1772,10 +1780,10 @@
         <v>4.6188021535170067</v>
       </c>
       <c r="N31" s="0">
-        <v>133.74166666666665</v>
+        <v>29.145619047619039</v>
       </c>
       <c r="O31" s="0">
-        <v>69.246196786859329</v>
+        <v>6.8678887656619434</v>
       </c>
       <c r="P31" s="0">
         <v>45.056666666666665</v>
@@ -1825,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>59.144999999999982</v>
+        <v>58.817500000000024</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -1878,10 +1886,10 @@
         <v>1.2018504251546631</v>
       </c>
       <c r="N33" s="0">
-        <v>150.14485714285718</v>
+        <v>58.878761904761937</v>
       </c>
       <c r="O33" s="0">
-        <v>77.062841498236438</v>
+        <v>20.820190612766464</v>
       </c>
       <c r="P33" s="0">
         <v>33.341933333333337</v>
@@ -1931,10 +1939,10 @@
         <v>5.6075346137535744</v>
       </c>
       <c r="N34" s="0">
-        <v>176.18849206349202</v>
+        <v>70.437301587301533</v>
       </c>
       <c r="O34" s="0">
-        <v>91.420233202403352</v>
+        <v>30.478441055706767</v>
       </c>
       <c r="P34" s="0">
         <v>21.627199999999998</v>
@@ -1984,10 +1992,10 @@
         <v>13.051181300301261</v>
       </c>
       <c r="N35" s="0">
-        <v>48.888166666666685</v>
+        <v>48.770666666666671</v>
       </c>
       <c r="O35" s="0">
-        <v>7.6278877063779191</v>
+        <v>7.5685962224033263</v>
       </c>
       <c r="P35" s="0">
         <v>26.132866666666668</v>
@@ -2037,10 +2045,10 @@
         <v>5.2387445485005699</v>
       </c>
       <c r="N36" s="0">
-        <v>170.19983333333332</v>
+        <v>90.907555555555561</v>
       </c>
       <c r="O36" s="0">
-        <v>121.50282610579247</v>
+        <v>45.016108541249217</v>
       </c>
       <c r="P36" s="0">
         <v>16.670966666666668</v>
@@ -2090,10 +2098,10 @@
         <v>6.6916199666282443</v>
       </c>
       <c r="N37" s="0">
-        <v>326.58666666666664</v>
+        <v>44.647499999999972</v>
       </c>
       <c r="O37" s="0">
-        <v>228.00716921802001</v>
+        <v>19.7575</v>
       </c>
       <c r="P37" s="0">
         <v>12.165300000000002</v>
@@ -2143,10 +2151,10 @@
         <v>5.1316014394468841</v>
       </c>
       <c r="N38" s="0">
-        <v>38.086692640692632</v>
+        <v>37.537748917748893</v>
       </c>
       <c r="O38" s="0">
-        <v>2.6874289897575432</v>
+        <v>2.8777173272271339</v>
       </c>
       <c r="P38" s="0">
         <v>51.81516666666667</v>
@@ -2196,10 +2204,10 @@
         <v>3.4641016151377548</v>
       </c>
       <c r="N39" s="0">
-        <v>92.250761904761916</v>
+        <v>69.433333333333351</v>
       </c>
       <c r="O39" s="0">
-        <v>33.679873340016385</v>
+        <v>27.195919015747766</v>
       </c>
       <c r="P39" s="0">
         <v>27.034000000000002</v>
@@ -2249,10 +2257,10 @@
         <v>4.8419463487779835</v>
       </c>
       <c r="N40" s="0">
-        <v>229.66400000000007</v>
+        <v>81.038166666666669</v>
       </c>
       <c r="O40" s="0">
-        <v>80.240931707784497</v>
+        <v>10.670741853050519</v>
       </c>
       <c r="P40" s="0">
         <v>35.594766666666665</v>
@@ -2302,10 +2310,10 @@
         <v>3.7859388972001824</v>
       </c>
       <c r="N41" s="0">
-        <v>352.77777777777783</v>
+        <v>104.50277777777778</v>
       </c>
       <c r="O41" s="0">
-        <v>198.49095234612486</v>
+        <v>89.349369540840513</v>
       </c>
       <c r="P41" s="0">
         <v>18.473233333333333</v>
@@ -2355,10 +2363,10 @@
         <v>10.26861453383291</v>
       </c>
       <c r="N42" s="0">
-        <v>96.815333333333342</v>
+        <v>32.674666666666653</v>
       </c>
       <c r="O42" s="0">
-        <v>78.739659480538251</v>
+        <v>16.35389683768911</v>
       </c>
       <c r="P42" s="0">
         <v>26.583433333333335</v>
@@ -2461,10 +2469,10 @@
         <v>1.4529663145135581</v>
       </c>
       <c r="N44" s="0">
-        <v>101.67388888888888</v>
+        <v>66.088888888888889</v>
       </c>
       <c r="O44" s="0">
-        <v>42.398314479222066</v>
+        <v>17.554696146334276</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
@@ -2567,10 +2575,10 @@
         <v>3.844187531556932</v>
       </c>
       <c r="N46" s="0">
-        <v>88.322777777777844</v>
+        <v>14.090833333333359</v>
       </c>
       <c r="O46" s="0">
-        <v>76.561450732542966</v>
+        <v>5.7179892177621729</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -2620,10 +2628,10 @@
         <v>6.110100926607787</v>
       </c>
       <c r="N47" s="0">
-        <v>106.84416666666669</v>
+        <v>77.080000000000027</v>
       </c>
       <c r="O47" s="0">
-        <v>44.793834880338594</v>
+        <v>15.206206822410598</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -2673,10 +2681,10 @@
         <v>1.5275252316519468</v>
       </c>
       <c r="N48" s="0">
-        <v>316.61374999999992</v>
+        <v>44.45547619047619</v>
       </c>
       <c r="O48" s="0">
-        <v>157.64600830955879</v>
+        <v>17.668809523809518</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -2779,10 +2787,10 @@
         <v>4.3716256828680002</v>
       </c>
       <c r="N50" s="0">
-        <v>144.83338888888889</v>
+        <v>95.449222222222218</v>
       </c>
       <c r="O50" s="0">
-        <v>53.653648991430963</v>
+        <v>18.415646141994593</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
@@ -2832,10 +2840,10 @@
         <v>5.3644923131436935</v>
       </c>
       <c r="N51" s="0">
-        <v>56.463629072681698</v>
+        <v>34.080187134502907</v>
       </c>
       <c r="O51" s="0">
-        <v>29.939334355348439</v>
+        <v>9.4671840932191955</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
@@ -2884,8 +2892,12 @@
       <c r="M52" s="0">
         <v>14.424371736751656</v>
       </c>
-      <c r="N52" s="0"/>
-      <c r="O52" s="0"/>
+      <c r="N52" s="0">
+        <v>57.245062499999982</v>
+      </c>
+      <c r="O52" s="0">
+        <v>32.547300955425996</v>
+      </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
@@ -2934,10 +2946,10 @@
         <v>7.4986109824864675</v>
       </c>
       <c r="N53" s="0">
-        <v>17.437062500000032</v>
+        <v>17.054000000000038</v>
       </c>
       <c r="O53" s="0">
-        <v>4.9355576638288872</v>
+        <v>5.0543096462325856</v>
       </c>
       <c r="P53" s="0">
         <v>19.261724999999998</v>
@@ -2987,10 +2999,10 @@
         <v>3.7564758898615485</v>
       </c>
       <c r="N54" s="0">
-        <v>22.517829059829051</v>
+        <v>20.890238095238086</v>
       </c>
       <c r="O54" s="0">
-        <v>12.397403971227275</v>
+        <v>11.829910942768436</v>
       </c>
       <c r="P54" s="0">
         <v>20.726066666666668</v>
@@ -3040,10 +3052,10 @@
         <v>7.4874895659359684</v>
       </c>
       <c r="N55" s="0">
-        <v>22.985751262626259</v>
+        <v>21.846755050505049</v>
       </c>
       <c r="O55" s="0">
-        <v>6.5123791117492162</v>
+        <v>6.419833542877055</v>
       </c>
       <c r="P55" s="0">
         <v>44.268174999999999</v>
@@ -3093,10 +3105,10 @@
         <v>3.9264063297965821</v>
       </c>
       <c r="N56" s="0">
-        <v>51.016607819264074</v>
+        <v>49.996329895594613</v>
       </c>
       <c r="O56" s="0">
-        <v>19.689917273526355</v>
+        <v>19.894911001687269</v>
       </c>
       <c r="P56" s="0">
         <v>38.185524999999998</v>
@@ -3146,10 +3158,10 @@
         <v>9</v>
       </c>
       <c r="N57" s="0">
-        <v>20.272727272727263</v>
+        <v>19.869999999999997</v>
       </c>
       <c r="O57" s="0">
-        <v>13.047272727272754</v>
+        <v>13.205000000000011</v>
       </c>
       <c r="P57" s="0">
         <v>20.275500000000001</v>
@@ -3199,10 +3211,10 @@
         <v>5.7933151131282337</v>
       </c>
       <c r="N58" s="0">
-        <v>19.690202380952385</v>
+        <v>19.323910714285716</v>
       </c>
       <c r="O58" s="0">
-        <v>9.0438488519452065</v>
+        <v>8.7783092218083709</v>
       </c>
       <c r="P58" s="0">
         <v>27.371925000000001</v>
@@ -3252,10 +3264,10 @@
         <v>5.8505697728227002</v>
       </c>
       <c r="N59" s="0">
-        <v>49.32327777777779</v>
+        <v>10.042312499999998</v>
       </c>
       <c r="O59" s="0">
-        <v>42.083490735349194</v>
+        <v>3.4423776505960122</v>
       </c>
       <c r="P59" s="0">
         <v>26.358149999999998</v>
@@ -3305,10 +3317,10 @@
         <v>8.8835053141576203</v>
       </c>
       <c r="N60" s="0">
-        <v>76.504247474747444</v>
+        <v>18.153861416361408</v>
       </c>
       <c r="O60" s="0">
-        <v>64.325092036328385</v>
+        <v>6.8248216035813964</v>
       </c>
       <c r="P60" s="0">
         <v>20.613424999999999</v>
@@ -3358,10 +3370,10 @@
         <v>10.873323625583241</v>
       </c>
       <c r="N61" s="0">
-        <v>15.530615079365099</v>
+        <v>14.412063492063538</v>
       </c>
       <c r="O61" s="0">
-        <v>5.1839505815826348</v>
+        <v>4.5321536677642502</v>
       </c>
       <c r="P61" s="0">
         <v>26.696075</v>
@@ -3411,10 +3423,10 @@
         <v>6.8236720319780906</v>
       </c>
       <c r="N62" s="0">
-        <v>23.659569444444443</v>
+        <v>23.085905701754385</v>
       </c>
       <c r="O62" s="0">
-        <v>18.72770834927822</v>
+        <v>18.502600180440993</v>
       </c>
       <c r="P62" s="0">
         <v>26.358150000000002</v>
@@ -3464,10 +3476,10 @@
         <v>8.1034971874288129</v>
       </c>
       <c r="N63" s="0">
-        <v>16.497313725490198</v>
+        <v>15.811111111111108</v>
       </c>
       <c r="O63" s="0">
-        <v>9.9920199076466609</v>
+        <v>10.056414481425385</v>
       </c>
       <c r="P63" s="0">
         <v>27.371925000000001</v>
@@ -3517,10 +3529,10 @@
         <v>6.1441028637222539</v>
       </c>
       <c r="N64" s="0">
-        <v>53.171984551396321</v>
+        <v>52.288196524064169</v>
       </c>
       <c r="O64" s="0">
-        <v>48.638224454046714</v>
+        <v>48.065939507319847</v>
       </c>
       <c r="P64" s="0">
         <v>38.861375000000002</v>
@@ -3570,10 +3582,10 @@
         <v>4.1028445416970571</v>
       </c>
       <c r="N65" s="0">
-        <v>35.982142094017071</v>
+        <v>10.92069444444442</v>
       </c>
       <c r="O65" s="0">
-        <v>13.559294273256134</v>
+        <v>6.5730101771830309</v>
       </c>
       <c r="P65" s="0">
         <v>33.454575000000006</v>
@@ -3623,10 +3635,10 @@
         <v>7.5429326745857503</v>
       </c>
       <c r="N66" s="0">
-        <v>14.323015873015915</v>
+        <v>13.428214285714324</v>
       </c>
       <c r="O66" s="0">
-        <v>8.6581575349333377</v>
+        <v>7.933646281806995</v>
       </c>
       <c r="P66" s="0">
         <v>31.427025</v>
@@ -3676,10 +3688,10 @@
         <v>5.4064005277695317</v>
       </c>
       <c r="N67" s="0">
-        <v>10.261783216783211</v>
+        <v>9.6073670814479648</v>
       </c>
       <c r="O67" s="0">
-        <v>4.7191364906260294</v>
+        <v>4.3964934011954115</v>
       </c>
       <c r="P67" s="0">
         <v>25.344374999999999</v>
@@ -3729,10 +3741,10 @@
         <v>3.3416562759605704</v>
       </c>
       <c r="N68" s="0">
-        <v>121.16775106837611</v>
+        <v>15.986001068376082</v>
       </c>
       <c r="O68" s="0">
-        <v>107.64758759726097</v>
+        <v>3.3727548131928717</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
@@ -3835,10 +3847,10 @@
         <v>5.0166389810974703</v>
       </c>
       <c r="N70" s="0">
-        <v>103.4271794871795</v>
+        <v>20.819679487179499</v>
       </c>
       <c r="O70" s="0">
-        <v>78.045874811224394</v>
+        <v>7.6018043078736914</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
@@ -3888,10 +3900,10 @@
         <v>4.0414518843273806</v>
       </c>
       <c r="N71" s="0">
-        <v>110.66804861111112</v>
+        <v>49.131557539682525</v>
       </c>
       <c r="O71" s="0">
-        <v>41.769076526508975</v>
+        <v>12.918624214644911</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
@@ -3941,10 +3953,10 @@
         <v>7.0163499532639237</v>
       </c>
       <c r="N72" s="0">
-        <v>192.21209523809523</v>
+        <v>53.494761904761901</v>
       </c>
       <c r="O72" s="0">
-        <v>82.85531469926255</v>
+        <v>24.930980202675812</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
@@ -4047,10 +4059,10 @@
         <v>5.4064005277695317</v>
       </c>
       <c r="N74" s="0">
-        <v>45.357232142857136</v>
+        <v>26.070327380952378</v>
       </c>
       <c r="O74" s="0">
-        <v>21.477471478980494</v>
+        <v>7.4603191229800752</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
@@ -4153,10 +4165,10 @@
         <v>9.32179346120334</v>
       </c>
       <c r="N76" s="0">
-        <v>24.689971988795534</v>
+        <v>14.458981481481501</v>
       </c>
       <c r="O76" s="0">
-        <v>12.357842110394305</v>
+        <v>1.0615404688515613</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
@@ -4205,8 +4217,12 @@
       <c r="M77" s="0">
         <v>2.5289984842489197</v>
       </c>
-      <c r="N77" s="0"/>
-      <c r="O77" s="0"/>
+      <c r="N77" s="0">
+        <v>106.31333333333332</v>
+      </c>
+      <c r="O77" s="0">
+        <v>27.146724727412799</v>
+      </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
@@ -4255,10 +4271,10 @@
         <v>9.5960061136565216</v>
       </c>
       <c r="N78" s="0">
-        <v>25.095937500000016</v>
+        <v>24.286041666666691</v>
       </c>
       <c r="O78" s="0">
-        <v>7.6594196053882602</v>
+        <v>7.9682822874724408</v>
       </c>
       <c r="P78" s="0">
         <v>24.3306</v>
@@ -4308,10 +4324,10 @@
         <v>2.5495097567963922</v>
       </c>
       <c r="N79" s="0">
-        <v>99.040833333333353</v>
+        <v>24.346875000000026</v>
       </c>
       <c r="O79" s="0">
-        <v>69.248117658933936</v>
+        <v>6.1648416253481138</v>
       </c>
       <c r="P79" s="0">
         <v>24.668524999999999</v>
@@ -4361,10 +4377,10 @@
         <v>4.924428900898052</v>
       </c>
       <c r="N80" s="0">
-        <v>265.42713888888886</v>
+        <v>21.953333333333337</v>
       </c>
       <c r="O80" s="0">
-        <v>198.87575692659027</v>
+        <v>6.2164980614609782</v>
       </c>
       <c r="P80" s="0">
         <v>50.012900000000002</v>
@@ -4414,10 +4430,10 @@
         <v>5.2974050251042728</v>
       </c>
       <c r="N81" s="0">
-        <v>88.206000000000031</v>
+        <v>19.475229166666676</v>
       </c>
       <c r="O81" s="0">
-        <v>46.625643638095426</v>
+        <v>3.8047219771424543</v>
       </c>
       <c r="P81" s="0">
         <v>41.226850000000006</v>
@@ -4467,10 +4483,10 @@
         <v>2.9999999999999996</v>
       </c>
       <c r="N82" s="0">
-        <v>296.13499999999999</v>
+        <v>33.947499999999984</v>
       </c>
       <c r="O82" s="0">
-        <v>275.92999999999995</v>
+        <v>15.382499999999997</v>
       </c>
       <c r="P82" s="0">
         <v>52.716300000000004</v>
@@ -4520,10 +4536,10 @@
         <v>1.0307764064044151</v>
       </c>
       <c r="N83" s="0">
-        <v>186.98391666666672</v>
+        <v>63.633666666666706</v>
       </c>
       <c r="O83" s="0">
-        <v>61.64374175504355</v>
+        <v>13.910029167634578</v>
       </c>
       <c r="P83" s="0">
         <v>28.047775000000001</v>
@@ -4573,10 +4589,10 @@
         <v>1.3149778198382918</v>
       </c>
       <c r="N84" s="0">
-        <v>66.250833333333333</v>
+        <v>40.733333333333327</v>
       </c>
       <c r="O84" s="0">
-        <v>38.264648493166042</v>
+        <v>15.160912889058794</v>
       </c>
       <c r="P84" s="0">
         <v>27.371925000000001</v>
@@ -4626,10 +4642,10 @@
         <v>5.0887948802573417</v>
       </c>
       <c r="N85" s="0">
-        <v>74.692083333333343</v>
+        <v>29.908833333333337</v>
       </c>
       <c r="O85" s="0">
-        <v>46.119746987712844</v>
+        <v>11.653354983850354</v>
       </c>
       <c r="P85" s="0">
         <v>34.806275000000007</v>
@@ -4679,10 +4695,10 @@
         <v>9.6133587609464914</v>
       </c>
       <c r="N86" s="0">
-        <v>136.09987500000003</v>
+        <v>63.233625000000046</v>
       </c>
       <c r="O86" s="0">
-        <v>105.65688812542683</v>
+        <v>32.872415110909635</v>
       </c>
       <c r="P86" s="0">
         <v>19.261725000000002</v>
@@ -4732,10 +4748,10 @@
         <v>2.3935677693908453</v>
       </c>
       <c r="N87" s="0">
-        <v>158.90079166666663</v>
+        <v>21.423958333333346</v>
       </c>
       <c r="O87" s="0">
-        <v>132.31607222832866</v>
+        <v>5.7115197045155464</v>
       </c>
       <c r="P87" s="0">
         <v>15.206625000000001</v>
@@ -4785,10 +4801,10 @@
         <v>3.8514066694304478</v>
       </c>
       <c r="N88" s="0">
-        <v>28.711309523809529</v>
+        <v>26.65896428571428</v>
       </c>
       <c r="O88" s="0">
-        <v>3.2184519053783549</v>
+        <v>3.3930463733570972</v>
       </c>
       <c r="P88" s="0">
         <v>19.937574999999999</v>
@@ -4838,10 +4854,10 @@
         <v>6.2316396986133062</v>
       </c>
       <c r="N89" s="0">
-        <v>179.54727678571427</v>
+        <v>33.281205357142824</v>
       </c>
       <c r="O89" s="0">
-        <v>146.89192262076702</v>
+        <v>9.8444483823567204</v>
       </c>
       <c r="P89" s="0">
         <v>17.910024999999997</v>
@@ -4891,10 +4907,10 @@
         <v>10.949695581765427</v>
       </c>
       <c r="N90" s="0">
-        <v>157.73659090909089</v>
+        <v>25.801249999999989</v>
       </c>
       <c r="O90" s="0">
-        <v>130.91793842441888</v>
+        <v>10.173762855334019</v>
       </c>
       <c r="P90" s="0">
         <v>25.682300000000001</v>
@@ -4944,10 +4960,10 @@
         <v>16.489264184108801</v>
       </c>
       <c r="N91" s="0">
-        <v>96.78443965517242</v>
+        <v>26.470666666666634</v>
       </c>
       <c r="O91" s="0">
-        <v>64.634053570215087</v>
+        <v>13.629073433901031</v>
       </c>
       <c r="P91" s="0">
         <v>23.316825000000001</v>
@@ -4997,10 +5013,10 @@
         <v>9.4989034454860466</v>
       </c>
       <c r="N92" s="0">
-        <v>12.883906250000017</v>
+        <v>12.74283482142858</v>
       </c>
       <c r="O92" s="0">
-        <v>5.2755997041052867</v>
+        <v>5.1944640325369136</v>
       </c>
       <c r="P92" s="0">
         <v>25.006450000000001</v>
@@ -5050,10 +5066,10 @@
         <v>7.0872538170060384</v>
       </c>
       <c r="N93" s="0">
-        <v>151.06141617063489</v>
+        <v>13.769023109243662</v>
       </c>
       <c r="O93" s="0">
-        <v>104.35643340851874</v>
+        <v>2.7619778823630798</v>
       </c>
       <c r="P93" s="0">
         <v>0</v>
@@ -5103,10 +5119,10 @@
         <v>2.2173557826083452</v>
       </c>
       <c r="N94" s="0">
-        <v>60.699937500000019</v>
+        <v>33.452465277777797</v>
       </c>
       <c r="O94" s="0">
-        <v>20.909256627442289</v>
+        <v>16.1385994422448</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
@@ -5156,10 +5172,10 @@
         <v>2.4152294576982398</v>
       </c>
       <c r="N95" s="0">
-        <v>80.482500000000016</v>
+        <v>37.078333333333347</v>
       </c>
       <c r="O95" s="0">
-        <v>55.873356482167175</v>
+        <v>17.17214079386854</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
@@ -5209,10 +5225,10 @@
         <v>1.9148542155126762</v>
       </c>
       <c r="N96" s="0">
-        <v>119.34222222222222</v>
+        <v>29.091111111111115</v>
       </c>
       <c r="O96" s="0">
-        <v>110.50750613576292</v>
+        <v>20.552524611376459</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
@@ -5315,10 +5331,10 @@
         <v>1.4719601443879744</v>
       </c>
       <c r="N98" s="0">
-        <v>115.90568750000003</v>
+        <v>23.133687499999997</v>
       </c>
       <c r="O98" s="0">
-        <v>86.41379136152203</v>
+        <v>10.500334183856067</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
@@ -5421,10 +5437,10 @@
         <v>1.75</v>
       </c>
       <c r="N100" s="0">
-        <v>505.19499999999999</v>
+        <v>22.153333333333308</v>
       </c>
       <c r="O100" s="0">
-        <v>365.43775339766609</v>
+        <v>9.7780508168948685</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
@@ -5474,10 +5490,10 @@
         <v>3.7638632635454048</v>
       </c>
       <c r="N101" s="0">
-        <v>8.0465824915824893</v>
+        <v>6.7895454545454514</v>
       </c>
       <c r="O101" s="0">
-        <v>4.0773943075567818</v>
+        <v>3.8028889174491143</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
